--- a/data/hotels_by_city/Dallas/Dallas_shard_590.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_590.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,249 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r491879973-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109056</t>
+  </si>
+  <si>
+    <t>491879973</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect for my needs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely perfect for my needs. A good, cheap room that is very close to DFW and downtown Dallas. The room was comfortable and clean, the hotel was quiet all hours of the day. I did not have any problems at all and was able to check in early. I would gladly stay here again if I was in the area and would recommend it to anyone on a budget.  Thanks Motel 6 DFW for a good room and stay. I hope to see you soon. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r467713134-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>467713134</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>No Frills Money Saver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed from 1 night due to a late flight cancelation. Room was clean, bathroom okay, bed a bit lumpy. I could not figure out how to work the TV. Unlike any system I've ever seem in a motel. Tried calling front desk for assistance but the house phone was out. WiFi connection kept dropping The free shuttle van to the airport, which partnered with a number of other local discount motels, was old, run down, and very crowded. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r426979474-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>426979474</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Newly renovated!</t>
+  </si>
+  <si>
+    <t>The new Motel 6 rooms are amazing! The beds were comfortable, they had nice wood floors. The staff here was very friendly. The location is convenient, everything we needed was maybe 5 or 10 minutes away. I stayed for 3 nights &amp; it was a great visit for the price. I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r196195529-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>196195529</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>I've gotten better service for the price.</t>
+  </si>
+  <si>
+    <t>We've been here for a month,and overall it's been disappointing. After our 2nd week my fiancé was discounted for the pet fee which is suppose to be $50.00 and was only charged $25.00. When the 3rd week came by I went to front to pay for the week and one of the front desk personnel told me I "owed" him for last week's pet fee, that he didn't understand why we were discounted for the previous week. We found out at other Studio 6 they refund you a $100 pet deposit if the stay is 5 days or more. The housekeeping are afraid to go in the room and clean if they hear a dog barking( they only clean once a week). The TV in the bedroom doesn't show the picture but you get the channels. Often times it's not quiet at night because everytime someone walks by they're usually yelling at someone from 2nd floor to bottom floor, or there is arguing going on but you don't know from where it's coming from.  The couches and carpet smell even after the room has been cleaned. The bathroom is in very poor conditions but usable. I could keep going. If you like ghetto and doing your own cleaning this is the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've been here for a month,and overall it's been disappointing. After our 2nd week my fiancé was discounted for the pet fee which is suppose to be $50.00 and was only charged $25.00. When the 3rd week came by I went to front to pay for the week and one of the front desk personnel told me I "owed" him for last week's pet fee, that he didn't understand why we were discounted for the previous week. We found out at other Studio 6 they refund you a $100 pet deposit if the stay is 5 days or more. The housekeeping are afraid to go in the room and clean if they hear a dog barking( they only clean once a week). The TV in the bedroom doesn't show the picture but you get the channels. Often times it's not quiet at night because everytime someone walks by they're usually yelling at someone from 2nd floor to bottom floor, or there is arguing going on but you don't know from where it's coming from.  The couches and carpet smell even after the room has been cleaned. The bathroom is in very poor conditions but usable. I could keep going. If you like ghetto and doing your own cleaning this is the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r193173478-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>193173478</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>OK for overnight stay during ice storm emergency</t>
+  </si>
+  <si>
+    <t>very much in need of renovation. marginal front desk. dilapidated furnishings. carpeting soiled and smelly. room rate OK. bathroom fixtures usable but weathered. maintenance man filling inas front desk clerk during ice storm emergency was compassionate, helpful but somewhat overwhelmed by working beyond his job description. Heating unit functioned but just barely.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r166857428-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>166857428</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>some good some bad</t>
+  </si>
+  <si>
+    <t>good - price, free shuttle to airport. bad - hot tub didn't work, room not cleaned in that a shoebox with dirty smelly socks was left in the room by its previous occupant. internet intermittent. needs renovating</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r131100941-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>131100941</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Run Far Away-NASTY</t>
+  </si>
+  <si>
+    <t>THE NASTIEST HOTEL IVE EVER BEEN IN. the sheets are white but are dingy looking, looks like they have been dragged through the mud. The room smells musty. The room was dirty. The outside building has rotten wood and wood is falling.  The room is infested with roaches. This place needs to be shut down, its that gross.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r127246834-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127246834</t>
+  </si>
+  <si>
+    <t>04/04/2012</t>
+  </si>
+  <si>
+    <t>Stay away if you can help it</t>
+  </si>
+  <si>
+    <t>Im usually pretty generous with my reviews. This place was a bit of a mess. I stayed in room 209. Buttons were ripped off the ac unit and the lamp. The toilet almost tipped over when I tried to sit on it. There was no one manning the front desk in the morning. The non smokin rooms smell like an ash tray. Stay away if you can.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r122939626-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>122939626</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>DISGUSTING!!! Find another hotel!!!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before an early morning flight and booked it because we just needed a place to sleep for a reasonable price.  Where to begin???The floors were so nasty that my shoes were actually sticking to the tile and carpet.  Counters in kitchenette and bath were stained.  Hair in the sink and bathtub.  The toilet wouldn't flush without almost over-flowing.  When I called down and asked them to send someone up to address the problem I was told that they don't offer room service.  Room Service???? Seriously???  I explained that this was not "room service" but a maintenance issue to which the front desk replied "You can come to the front desk and get a plunger to use".    I would never stay here again and would not recommend to anyone at any price.,MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before an early morning flight and booked it because we just needed a place to sleep for a reasonable price.  Where to begin???The floors were so nasty that my shoes were actually sticking to the tile and carpet.  Counters in kitchenette and bath were stained.  Hair in the sink and bathtub.  The toilet wouldn't flush without almost over-flowing.  When I called down and asked them to send someone up to address the problem I was told that they don't offer room service.  Room Service???? Seriously???  I explained that this was not "room service" but a maintenance issue to which the front desk replied "You can come to the front desk and get a plunger to use".    I would never stay here again and would not recommend to anyone at any price.,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r11107889-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>11107889</t>
+  </si>
+  <si>
+    <t>11/27/2007</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>Upon arriving @ the hotel  there was no info for reservation from Hotels.com, I had changed the room type the day before, the frontdesk clerk was very helpful by calling them, I also called them, it took quite awhile. The clerk gave us a temporary room to wait, and then accomodated us very well after the foul-up was corrected!</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r7835629-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>7835629</t>
+  </si>
+  <si>
+    <t>06/10/2007</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Title says it all.  Good location, helpful and courteous employees, nice pool.  Rooms are large and in decent condition but they aren't cleaned well at all.  For example, the shower had at least three soap bars and wrappers from previous guests, I had a couple of encounters with cockroaches, surfaces like closet rods and out-of-reach parts of furniture were caked with dust and dirt, cigarette burns on the comforter (non smoking room!), etc.  I checked in on a Friday evening and a large trash can in the courtyard was full with pizza boxes stacked on it.  By Monday morning it hadn't been touched.  That's probably where the cockroaches come from.  Only because I paid next to nothing to stay here can I say I got my money's worth.  I am now noticing that this place goes by two names:  Homegate and Homeplace.  Why?MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Title says it all.  Good location, helpful and courteous employees, nice pool.  Rooms are large and in decent condition but they aren't cleaned well at all.  For example, the shower had at least three soap bars and wrappers from previous guests, I had a couple of encounters with cockroaches, surfaces like closet rods and out-of-reach parts of furniture were caked with dust and dirt, cigarette burns on the comforter (non smoking room!), etc.  I checked in on a Friday evening and a large trash can in the courtyard was full with pizza boxes stacked on it.  By Monday morning it hadn't been touched.  That's probably where the cockroaches come from.  Only because I paid next to nothing to stay here can I say I got my money's worth.  I am now noticing that this place goes by two names:  Homegate and Homeplace.  Why?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r5327624-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>5327624</t>
+  </si>
+  <si>
+    <t>06/08/2006</t>
+  </si>
+  <si>
+    <t>Stay Somewhere Else</t>
+  </si>
+  <si>
+    <t>Our reservations  were made over the internet.  We checked in and viewed our room.  The room did not have enought beds to meet the needs of our family as stated on the reservation.  We checked out within 30 minutes and were told we would  get a full refund.  The next morning I called to verify and the manager said he would not refund or credit our credit card.  We did not sleep, swim, eat, or even flush in their hotel yet we are being charged as if we did.  The manager was contacted by the reservation company to get my refund and he refused even them.  It is my opinion that this hotel cares for only getting money - YOURS - and not about meeting the needs of the customer.  This manager is extreemely difficult to work with!MoreShow less</t>
+  </si>
+  <si>
+    <t>Our reservations  were made over the internet.  We checked in and viewed our room.  The room did not have enought beds to meet the needs of our family as stated on the reservation.  We checked out within 30 minutes and were told we would  get a full refund.  The next morning I called to verify and the manager said he would not refund or credit our credit card.  We did not sleep, swim, eat, or even flush in their hotel yet we are being charged as if we did.  The manager was contacted by the reservation company to get my refund and he refused even them.  It is my opinion that this hotel cares for only getting money - YOURS - and not about meeting the needs of the customer.  This manager is extreemely difficult to work with!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +888,766 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_590.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_590.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jason205</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Don P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r467713134-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Deja S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r426979474-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Nikkipanda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r196195529-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>We've been here for a month,and overall it's been disappointing. After our 2nd week my fiancé was discounted for the pet fee which is suppose to be $50.00 and was only charged $25.00. When the 3rd week came by I went to front to pay for the week and one of the front desk personnel told me I "owed" him for last week's pet fee, that he didn't understand why we were discounted for the previous week. We found out at other Studio 6 they refund you a $100 pet deposit if the stay is 5 days or more. The housekeeping are afraid to go in the room and clean if they hear a dog barking( they only clean once a week). The TV in the bedroom doesn't show the picture but you get the channels. Often times it's not quiet at night because everytime someone walks by they're usually yelling at someone from 2nd floor to bottom floor, or there is arguing going on but you don't know from where it's coming from.  The couches and carpet smell even after the room has been cleaned. The bathroom is in very poor conditions but usable. I could keep going. If you like ghetto and doing your own cleaning this is the place for you.More</t>
   </si>
   <si>
+    <t>TomMiale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r193173478-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>m v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r166857428-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Pjm3000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r131100941-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Wagslick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r127246834-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>Im usually pretty generous with my reviews. This place was a bit of a mess. I stayed in room 209. Buttons were ripped off the ac unit and the lamp. The toilet almost tipped over when I tried to sit on it. There was no one manning the front desk in the morning. The non smokin rooms smell like an ash tray. Stay away if you can.</t>
   </si>
   <si>
+    <t>IsItFiveOClock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r122939626-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>We stayed here for one night before an early morning flight and booked it because we just needed a place to sleep for a reasonable price.  Where to begin???The floors were so nasty that my shoes were actually sticking to the tile and carpet.  Counters in kitchenette and bath were stained.  Hair in the sink and bathtub.  The toilet wouldn't flush without almost over-flowing.  When I called down and asked them to send someone up to address the problem I was told that they don't offer room service.  Room Service???? Seriously???  I explained that this was not "room service" but a maintenance issue to which the front desk replied "You can come to the front desk and get a plunger to use".    I would never stay here again and would not recommend to anyone at any price.,More</t>
   </si>
   <si>
+    <t>wazuki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r11107889-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>November 2007</t>
   </si>
   <si>
+    <t>tomzweifel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r7835629-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -370,6 +403,9 @@
   </si>
   <si>
     <t>Title says it all.  Good location, helpful and courteous employees, nice pool.  Rooms are large and in decent condition but they aren't cleaned well at all.  For example, the shower had at least three soap bars and wrappers from previous guests, I had a couple of encounters with cockroaches, surfaces like closet rods and out-of-reach parts of furniture were caked with dust and dirt, cigarette burns on the comforter (non smoking room!), etc.  I checked in on a Friday evening and a large trash can in the courtyard was full with pizza boxes stacked on it.  By Monday morning it hadn't been touched.  That's probably where the cockroaches come from.  Only because I paid next to nothing to stay here can I say I got my money's worth.  I am now noticing that this place goes by two names:  Homegate and Homeplace.  Why?More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r5327624-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
@@ -892,43 +928,47 @@
       <c r="A2" t="n">
         <v>39837</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169481</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -942,50 +982,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39837</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>11788</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -999,50 +1043,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39837</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169482</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1056,41 +1104,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39837</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
@@ -1119,50 +1171,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39837</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169484</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1186,50 +1242,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39837</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>58994</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1253,50 +1313,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39837</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169485</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1320,41 +1384,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39837</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169486</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1383,50 +1451,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39837</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169487</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1450,50 +1522,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39837</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169488</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1517,50 +1593,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39837</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169489</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1584,41 +1664,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39837</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1645,7 +1729,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_590.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_590.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jason205</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r590360810-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109056</t>
+  </si>
+  <si>
+    <t>590360810</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Room for the night</t>
+  </si>
+  <si>
+    <t>Its a motel 6 not the Hilton. But its  been recently updated, had very nice LCD tvs, and everything worked and thats all I need in a hotel room I am staying in for one night. Very helpful staff and we enjoyed our unplanned one night stay and would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r579091059-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>579091059</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>theyre the BEST!!!</t>
+  </si>
+  <si>
+    <t>great roomsgreat locationlots of stores nearbyvery helpful friendly professional staffthey earn an a+ from me every daydave c.i am moving here from west coast, it is very helpful to have this place to place to use as a wonderful relocation tool</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r557145742-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>557145742</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Clean Rooms @ Reasonable Cost</t>
+  </si>
+  <si>
+    <t>Perfect for the traveller just passing through for a quick overnight. Conveniently located near the DFW airport. Lots of airline crews stay here, which tells you something positive. Low out-of-pocket cost.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r491879973-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>109056</t>
-  </si>
-  <si>
     <t>491879973</t>
   </si>
   <si>
@@ -180,9 +231,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Don P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r467713134-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -201,9 +249,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Deja S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r426979474-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -225,7 +270,43 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Nikkipanda</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r357984654-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>357984654</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>No Smoking My XXX</t>
+  </si>
+  <si>
+    <t>We don't expect much from Motel 6 and we don't get it!   No fridge, coffee, iron or full-height closet in the room.   Supposed to be non-smoking but reeks of smoke.   Even comes with an ashtray which is disguised as a key dish - this appears to be so when they rent out the room to smokers it does have a stealth ashtray!   As well, internet is extra - $2.99 for basic service and $4.99 per night for more bandwidth.   They should be renamed Motel 55 because that's what a room costs with basic internet!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r314678197-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>314678197</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Motel from hell</t>
+  </si>
+  <si>
+    <t>Booked for 2 nights to attend a funeral.  Gave me room 153, the kitchen cabinet door fell off when I opened it looking for a coffee maker.  No coffee maker, air condition had wires exposed, bathroom door wouldn't close, smoke detector was hanging from ceiling, plug outlets had no covers.  Moved to room 140 which was a little better.  I don't know how the city of Irving allows them to be open.  Will never ever stay at this dump again.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r196195529-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
@@ -246,9 +327,6 @@
     <t>We've been here for a month,and overall it's been disappointing. After our 2nd week my fiancé was discounted for the pet fee which is suppose to be $50.00 and was only charged $25.00. When the 3rd week came by I went to front to pay for the week and one of the front desk personnel told me I "owed" him for last week's pet fee, that he didn't understand why we were discounted for the previous week. We found out at other Studio 6 they refund you a $100 pet deposit if the stay is 5 days or more. The housekeeping are afraid to go in the room and clean if they hear a dog barking( they only clean once a week). The TV in the bedroom doesn't show the picture but you get the channels. Often times it's not quiet at night because everytime someone walks by they're usually yelling at someone from 2nd floor to bottom floor, or there is arguing going on but you don't know from where it's coming from.  The couches and carpet smell even after the room has been cleaned. The bathroom is in very poor conditions but usable. I could keep going. If you like ghetto and doing your own cleaning this is the place for you.More</t>
   </si>
   <si>
-    <t>TomMiale</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r193173478-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -267,12 +345,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>m v</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r166857428-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -291,7 +363,46 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Pjm3000</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r152567642-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>152567642</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Aweful, Stay away</t>
+  </si>
+  <si>
+    <t>I went to this booked this location so I could attend a funeral. I pre paid for 4 nights.  I stayed in room 110 on the first floor. It was advertised as a king suite, with full kitchen.  When I entered the location There where lots of trash on the property. The pool was brown and closed. I entered my room and I first noticed the AC unit was missing buttons.  Very old TV. The paint was chipping.  The microwave was from WW2.  I looked for my pots and pans but when I opened the cupboard there was one lid to a pon and no pots or pans at all. The door to my room had gaps so I could see outside even with is closed. My toilet had no toilet seat, and the curtain rod was rusted and coming off the wall. One lamp next to bed did not work at all. I stayed two nights and decided to book somewhere else. I went to the office and explained and they only credited my last night becasue they have a "24 hr cancellation" notice so I lost a nights worth of money. The conditions are terrible. Very low budget. I booked at homewoods suites in irving with full ktichen and its awesome. Very high end.   the only good thing about studio6 was it was next to food and a wal mart.   That was it. I will never book there...I went to this booked this location so I could attend a funeral. I pre paid for 4 nights.  I stayed in room 110 on the first floor. It was advertised as a king suite, with full kitchen.  When I entered the location There where lots of trash on the property. The pool was brown and closed. I entered my room and I first noticed the AC unit was missing buttons.  Very old TV. The paint was chipping.  The microwave was from WW2.  I looked for my pots and pans but when I opened the cupboard there was one lid to a pon and no pots or pans at all. The door to my room had gaps so I could see outside even with is closed. My toilet had no toilet seat, and the curtain rod was rusted and coming off the wall. One lamp next to bed did not work at all. I stayed two nights and decided to book somewhere else. I went to the office and explained and they only credited my last night becasue they have a "24 hr cancellation" notice so I lost a nights worth of money. The conditions are terrible. Very low budget. I booked at homewoods suites in irving with full ktichen and its awesome. Very high end.   the only good thing about studio6 was it was next to food and a wal mart.   That was it. I will never book there again.   I almost forgot, I put a do not disturb on the door at studio6 and the maids still beat on my door.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I went to this booked this location so I could attend a funeral. I pre paid for 4 nights.  I stayed in room 110 on the first floor. It was advertised as a king suite, with full kitchen.  When I entered the location There where lots of trash on the property. The pool was brown and closed. I entered my room and I first noticed the AC unit was missing buttons.  Very old TV. The paint was chipping.  The microwave was from WW2.  I looked for my pots and pans but when I opened the cupboard there was one lid to a pon and no pots or pans at all. The door to my room had gaps so I could see outside even with is closed. My toilet had no toilet seat, and the curtain rod was rusted and coming off the wall. One lamp next to bed did not work at all. I stayed two nights and decided to book somewhere else. I went to the office and explained and they only credited my last night becasue they have a "24 hr cancellation" notice so I lost a nights worth of money. The conditions are terrible. Very low budget. I booked at homewoods suites in irving with full ktichen and its awesome. Very high end.   the only good thing about studio6 was it was next to food and a wal mart.   That was it. I will never book there...I went to this booked this location so I could attend a funeral. I pre paid for 4 nights.  I stayed in room 110 on the first floor. It was advertised as a king suite, with full kitchen.  When I entered the location There where lots of trash on the property. The pool was brown and closed. I entered my room and I first noticed the AC unit was missing buttons.  Very old TV. The paint was chipping.  The microwave was from WW2.  I looked for my pots and pans but when I opened the cupboard there was one lid to a pon and no pots or pans at all. The door to my room had gaps so I could see outside even with is closed. My toilet had no toilet seat, and the curtain rod was rusted and coming off the wall. One lamp next to bed did not work at all. I stayed two nights and decided to book somewhere else. I went to the office and explained and they only credited my last night becasue they have a "24 hr cancellation" notice so I lost a nights worth of money. The conditions are terrible. Very low budget. I booked at homewoods suites in irving with full ktichen and its awesome. Very high end.   the only good thing about studio6 was it was next to food and a wal mart.   That was it. I will never book there again.   I almost forgot, I put a do not disturb on the door at studio6 and the maids still beat on my door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r144178074-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>144178074</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY DISGUSTING!!</t>
+  </si>
+  <si>
+    <t>Stay away from this place!!!When we arrived we were absolutely in shock, the kitchen was dirty, the counter dirty, i had to clean the refrigerator before putting my food inside. the stove was greasy, no pans or pots. The sink was plugged, etc, etc, etcThe shower drain was plugged also and full of hair. The toilet absolutely uncomfortable.The beds...agggghhh...we found beds bugs in my husband bed!!!We have a dog and we paid $10 extra per day for him with a maximum of $50 ( i didn't know about it). The sixth day i went to pay and the guy in the front desk told me... ohhhhh you don't have to pay for your dog today. When i showed my surprise, he told me...just kidding!.  Hours later my husband told me about that the pet policies clearly state that the maxim you have to pay for your pet is just $50...very dishonest!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Stay away from this place!!!When we arrived we were absolutely in shock, the kitchen was dirty, the counter dirty, i had to clean the refrigerator before putting my food inside. the stove was greasy, no pans or pots. The sink was plugged, etc, etc, etcThe shower drain was plugged also and full of hair. The toilet absolutely uncomfortable.The beds...agggghhh...we found beds bugs in my husband bed!!!We have a dog and we paid $10 extra per day for him with a maximum of $50 ( i didn't know about it). The sixth day i went to pay and the guy in the front desk told me... ohhhhh you don't have to pay for your dog today. When i showed my surprise, he told me...just kidding!.  Hours later my husband told me about that the pet policies clearly state that the maxim you have to pay for your pet is just $50...very dishonest!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r131100941-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
@@ -312,12 +423,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Wagslick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r127246834-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,9 +438,6 @@
     <t>Im usually pretty generous with my reviews. This place was a bit of a mess. I stayed in room 209. Buttons were ripped off the ac unit and the lamp. The toilet almost tipped over when I tried to sit on it. There was no one manning the front desk in the morning. The non smokin rooms smell like an ash tray. Stay away if you can.</t>
   </si>
   <si>
-    <t>IsItFiveOClock</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r122939626-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -360,7 +462,40 @@
     <t>We stayed here for one night before an early morning flight and booked it because we just needed a place to sleep for a reasonable price.  Where to begin???The floors were so nasty that my shoes were actually sticking to the tile and carpet.  Counters in kitchenette and bath were stained.  Hair in the sink and bathtub.  The toilet wouldn't flush without almost over-flowing.  When I called down and asked them to send someone up to address the problem I was told that they don't offer room service.  Room Service???? Seriously???  I explained that this was not "room service" but a maintenance issue to which the front desk replied "You can come to the front desk and get a plunger to use".    I would never stay here again and would not recommend to anyone at any price.,More</t>
   </si>
   <si>
-    <t>wazuki</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r65006009-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>65006009</t>
+  </si>
+  <si>
+    <t>05/22/2010</t>
+  </si>
+  <si>
+    <t>Great Value - Huge Room!</t>
+  </si>
+  <si>
+    <t>For no more than what we paid, we were very happy. Only minuses were slow drains in the bathtub and kitchen area, and they advertised a full sized refrigerator. We got the regular size fridge you see in hotels. When I think full size, I think the size we have at home.However, the staff was all very friendly and polite. Great service, and yes, the room was huge!If we are ever back in Dallas, I will want to stay there again!</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r22778465-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>22778465</t>
+  </si>
+  <si>
+    <t>12/16/2008</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at The HomeGate (HomeSuites Inn) in Irving, Tx on December 12th thur the 15th.  We where in town to see a Dallas Cowboy Game.  The location of this hotel is great.  Easy ride to see the game.  Everything you would need is right there, including a mall, movies theather, Wal-Mart and resturants.  The hotel it self is just OK.  When we entered our room I felt that the maid could have done a better job cleaning the room. They serve muffins, donuts, and coffee for breakfast.  But it ends at 9:30.  I wouldn't stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r11107889-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
@@ -381,9 +516,6 @@
     <t>November 2007</t>
   </si>
   <si>
-    <t>tomzweifel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r7835629-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -405,9 +537,6 @@
     <t>Title says it all.  Good location, helpful and courteous employees, nice pool.  Rooms are large and in decent condition but they aren't cleaned well at all.  For example, the shower had at least three soap bars and wrappers from previous guests, I had a couple of encounters with cockroaches, surfaces like closet rods and out-of-reach parts of furniture were caked with dust and dirt, cigarette burns on the comforter (non smoking room!), etc.  I checked in on a Friday evening and a large trash can in the courtyard was full with pizza boxes stacked on it.  By Monday morning it hadn't been touched.  That's probably where the cockroaches come from.  Only because I paid next to nothing to stay here can I say I got my money's worth.  I am now noticing that this place goes by two names:  Homegate and Homeplace.  Why?More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r5327624-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
   </si>
   <si>
@@ -424,6 +553,24 @@
   </si>
   <si>
     <t>Our reservations  were made over the internet.  We checked in and viewed our room.  The room did not have enought beds to meet the needs of our family as stated on the reservation.  We checked out within 30 minutes and were told we would  get a full refund.  The next morning I called to verify and the manager said he would not refund or credit our credit card.  We did not sleep, swim, eat, or even flush in their hotel yet we are being charged as if we did.  The manager was contacted by the reservation company to get my refund and he refused even them.  It is my opinion that this hotel cares for only getting money - YOURS - and not about meeting the needs of the customer.  This manager is extreemely difficult to work with!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109056-r4629200-Motel_6_Dallas_Irving_DFW_Airport_East-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>4629200</t>
+  </si>
+  <si>
+    <t>03/16/2006</t>
+  </si>
+  <si>
+    <t>Great Value For The Price</t>
+  </si>
+  <si>
+    <t>My stay at the Homeplace Suites was awesome. The room is a complete room with a kitchenette, flat screen television, and sofa bed.  The staff was helpful in everyway possible. The location is perfect.  There is a Super Walmart right next to the hotel and several restaurants in the area.  The mall is right across the highway.  For the price I paid for my stay there and what they have to offer, very few hotels can beat them.</t>
+  </si>
+  <si>
+    <t>February 2006</t>
   </si>
 </sst>
 </file>
@@ -928,108 +1075,104 @@
       <c r="A2" t="n">
         <v>39837</v>
       </c>
-      <c r="B2" t="n">
-        <v>169481</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39837</v>
       </c>
-      <c r="B3" t="n">
-        <v>11788</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1043,54 +1186,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39837</v>
       </c>
-      <c r="B4" t="n">
-        <v>169482</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1104,279 +1243,233 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39837</v>
       </c>
-      <c r="B5" t="n">
-        <v>169483</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39837</v>
       </c>
-      <c r="B6" t="n">
-        <v>169484</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39837</v>
       </c>
-      <c r="B7" t="n">
-        <v>58994</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39837</v>
       </c>
-      <c r="B8" t="n">
-        <v>169485</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1384,63 +1477,57 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39837</v>
       </c>
-      <c r="B9" t="n">
-        <v>169486</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>1</v>
@@ -1451,55 +1538,47 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39837</v>
       </c>
-      <c r="B10" t="n">
-        <v>169487</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s">
-        <v>112</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="n">
         <v>2</v>
       </c>
@@ -1510,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1522,66 +1601,62 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39837</v>
       </c>
-      <c r="B11" t="n">
-        <v>169488</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1593,70 +1668,66 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39837</v>
       </c>
-      <c r="B12" t="n">
-        <v>169489</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1664,58 +1735,60 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39837</v>
       </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
@@ -1729,7 +1802,663 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
         <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39837</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
